--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/6_Amasya_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/6_Amasya_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8DA2440-C32A-4458-B5D7-02A0E817586F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B328B0-6DC0-4B64-9F6C-B5DDA6589AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{3CB315AA-9E19-43F3-A129-9AFB40278CE4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{C42F6041-A3F0-46CF-A48A-DD7F4D0884C4}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -806,15 +806,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{0E866C74-320C-4620-B3E2-B4254021575D}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C1DF4BA4-CA36-403E-BE7D-D715D6D898D0}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E5F911BD-40EB-4DB2-AD7E-EFADA2771CB2}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{6E5C0DC1-5C99-46DE-AB4A-D679F748C240}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{739A4478-55FA-46D0-ACEA-9F311C70E248}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9E1932DC-077E-475A-B581-EB4B1F1B903B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CECEEBAF-8D7B-46C8-83C6-DD2952B4C64B}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{BD0A0BFF-3952-4FA8-94EA-C7CAD3E63A0D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{09E5C85F-9370-4AB0-8626-53684A9F1A52}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7735EC05-7577-4A34-8E57-E8593B4CE5E9}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B8B5F043-62D5-40F7-930C-948976374AFB}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{A9278F42-213F-4388-9806-FDE9FA609F1A}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{BF6B2568-E506-4518-890C-29017FC91E16}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{F4955989-4BD9-49E7-B580-E2C0F155D6DB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D852ACD9-E45D-4547-8109-241B575F912C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{50D76724-A871-4F41-85C3-B4E802EFB5AD}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{3FE41EF6-22DB-4CFC-BAC6-6066ADB7B350}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C79BD5D4-75B2-4F45-BA39-F2AD70B6C7CC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1184,7 +1184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3E5D79-54D7-454A-9A43-8C59217FCD48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6837FCF9-9565-4257-B66F-92E5E8816C02}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2440,7 +2440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFFC68C4-D7A4-48C4-83EE-09A075CE8B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47334E8B-7A41-4A03-A0CC-9BC38C84C999}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3697,7 +3697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E8027E-6D01-481F-9460-0779603DB7D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A9F851-1986-4032-A6EE-DD6D18EABED7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4957,7 +4957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F904DB-F106-4380-BFFA-13C596E8CA9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E2E650-5CEE-47D2-A0F6-52F0A17F162B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6217,7 +6217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB78B5A5-7F71-4A70-926B-5C0F59A39523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F79B2E0-F812-4980-AFFF-45786F3B683E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7463,7 +7463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D410CAA-B2C0-4687-BB22-92C7BA0E5444}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7F67EF-A924-4DAE-B3D5-B665A7DAB6C7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
